--- a/file xuất thẻ dự kiểm tra.xlsx
+++ b/file xuất thẻ dự kiểm tra.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Họ và tên học sinh</t>
   </si>
@@ -153,16 +153,13 @@
     <t>active</t>
   </si>
   <si>
-    <t>Nguyễn văn an</t>
-  </si>
-  <si>
-    <t>Nguyễn văn ban</t>
-  </si>
-  <si>
-    <t>Nguyễn văn can</t>
-  </si>
-  <si>
-    <t>Nguyễn văn dan</t>
+    <t>Nguyễn văn a</t>
+  </si>
+  <si>
+    <t>Nguyễn văn b</t>
+  </si>
+  <si>
+    <t>Nguyễn văn c</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,7 +480,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +536,7 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>123456789</v>
+        <v>123226789</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -641,7 +638,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>123456786</v>
